--- a/www/plys/Tern/Folk.xlsx
+++ b/www/plys/Tern/Folk.xlsx
@@ -1,32 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tzurloye\Desktop\R\RockR.v2.0\www\plys\Tern\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtshu\Desktop\RockR-master\www\plys\Tern\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925EC752-BEDA-4ECD-9A15-79FD7C2B7F03}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21525" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="9072" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plys" sheetId="1" r:id="rId1"/>
     <sheet name="lbls" sheetId="2" r:id="rId2"/>
     <sheet name="axes" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="28">
   <si>
     <t>A</t>
   </si>
@@ -93,12 +100,30 @@
   <si>
     <t>Muddy
 Sand</t>
+  </si>
+  <si>
+    <t>A_arrow</t>
+  </si>
+  <si>
+    <t>B_arrow</t>
+  </si>
+  <si>
+    <t>C_arrow</t>
+  </si>
+  <si>
+    <t>Silt (w/w)</t>
+  </si>
+  <si>
+    <t>Clay (w/w)</t>
+  </si>
+  <si>
+    <t>Sand (w/w)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -446,19 +471,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -475,7 +500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>100</v>
       </c>
@@ -492,7 +517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>90</v>
       </c>
@@ -509,7 +534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>90</v>
       </c>
@@ -526,7 +551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>90</v>
       </c>
@@ -543,7 +568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>90</v>
       </c>
@@ -560,7 +585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>50</v>
       </c>
@@ -577,7 +602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>50</v>
       </c>
@@ -594,7 +619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>90</v>
       </c>
@@ -611,7 +636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>90</v>
       </c>
@@ -628,7 +653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>50</v>
       </c>
@@ -645,7 +670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>50</v>
       </c>
@@ -662,7 +687,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>90</v>
       </c>
@@ -679,7 +704,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>90</v>
       </c>
@@ -696,7 +721,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>50</v>
       </c>
@@ -713,7 +738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>50</v>
       </c>
@@ -730,7 +755,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>50</v>
       </c>
@@ -747,7 +772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>50</v>
       </c>
@@ -764,7 +789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>10</v>
       </c>
@@ -781,7 +806,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>10</v>
       </c>
@@ -798,7 +823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>50</v>
       </c>
@@ -815,7 +840,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>50</v>
       </c>
@@ -832,7 +857,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>10</v>
       </c>
@@ -849,7 +874,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>10</v>
       </c>
@@ -866,7 +891,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>50</v>
       </c>
@@ -883,7 +908,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>50</v>
       </c>
@@ -900,7 +925,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>10</v>
       </c>
@@ -917,7 +942,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>10</v>
       </c>
@@ -934,7 +959,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>10</v>
       </c>
@@ -951,7 +976,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>10</v>
       </c>
@@ -968,7 +993,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0</v>
       </c>
@@ -985,7 +1010,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>0</v>
       </c>
@@ -1002,7 +1027,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>10</v>
       </c>
@@ -1019,7 +1044,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>10</v>
       </c>
@@ -1036,7 +1061,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>0</v>
       </c>
@@ -1053,7 +1078,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>0</v>
       </c>
@@ -1070,7 +1095,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>10</v>
       </c>
@@ -1087,7 +1112,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>10</v>
       </c>
@@ -1104,7 +1129,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>0</v>
       </c>
@@ -1121,7 +1146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>0</v>
       </c>
@@ -1138,20 +1163,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D44" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A2:E68">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E68">
     <sortCondition ref="D2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1159,19 +1184,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1197,7 +1222,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1226,7 +1251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1255,7 +1280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -1284,7 +1309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1313,7 +1338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1342,7 +1367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1371,7 +1396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1400,7 +1425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1429,7 +1454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1458,7 +1483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1487,7 +1512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
     </row>
   </sheetData>
@@ -1496,16 +1521,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="6" width="14.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1516,10 +1544,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1530,6 +1567,15 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
         <v>18</v>
       </c>
     </row>
